--- a/Data/Validation data/Dwelling_Stock_validation_data.xlsx
+++ b/Data/Validation data/Dwelling_Stock_validation_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solveig\Documents\GitHub\TEP4290_project\Data\Validation data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/Validation data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D31A1F-D1DF-4570-99AD-92E1377717B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{16D31A1F-D1DF-4570-99AD-92E1377717B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB9DC16-8585-41AB-89A6-26CBE1254887}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>06266: Dwellings, by contents, region, type of building and year</t>
   </si>
@@ -273,10 +273,10 @@
     <t>AB</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,7 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,351 +657,353 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>65</v>
+      <c r="E1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1403541</v>
-      </c>
-      <c r="C2">
-        <v>250583</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1200816</v>
+      </c>
+      <c r="C2" s="9">
+        <v>453308</v>
+      </c>
+      <c r="D2" s="9">
         <v>500539</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>2154663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1410509</v>
-      </c>
-      <c r="C3">
-        <v>255063</v>
-      </c>
-      <c r="D3">
+      <c r="A3" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1205121</v>
+      </c>
+      <c r="C3" s="9">
+        <v>460451</v>
+      </c>
+      <c r="D3" s="9">
         <v>516987</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>2182559</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1415407</v>
-      </c>
-      <c r="C4">
-        <v>260315</v>
-      </c>
-      <c r="D4">
+      <c r="A4" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1207665</v>
+      </c>
+      <c r="C4" s="9">
+        <v>468057</v>
+      </c>
+      <c r="D4" s="9">
         <v>538603</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>2214325</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1421304</v>
-      </c>
-      <c r="C5">
-        <v>264304</v>
-      </c>
-      <c r="D5">
+      <c r="A5" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1211431</v>
+      </c>
+      <c r="C5" s="9">
+        <v>474177</v>
+      </c>
+      <c r="D5" s="9">
         <v>555476</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>2241084</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1431499</v>
-      </c>
-      <c r="C6">
-        <v>267821</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1219903</v>
+      </c>
+      <c r="C6" s="9">
+        <v>479417</v>
+      </c>
+      <c r="D6" s="9">
         <v>564187</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>2263507</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1437422</v>
-      </c>
-      <c r="C7">
-        <v>271304</v>
-      </c>
-      <c r="D7">
+      <c r="A7" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1223485</v>
+      </c>
+      <c r="C7" s="9">
+        <v>485241</v>
+      </c>
+      <c r="D7" s="9">
         <v>572589</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>2281315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1446133</v>
-      </c>
-      <c r="C8">
-        <v>275801</v>
-      </c>
-      <c r="D8">
+      <c r="A8" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1230074</v>
+      </c>
+      <c r="C8" s="9">
+        <v>491860</v>
+      </c>
+      <c r="D8" s="9">
         <v>580262</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>2302196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1455553</v>
-      </c>
-      <c r="C9">
-        <v>281154</v>
-      </c>
-      <c r="D9">
+      <c r="A9" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1237287</v>
+      </c>
+      <c r="C9" s="9">
+        <v>499420</v>
+      </c>
+      <c r="D9" s="9">
         <v>594332</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>2331039</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1464696</v>
-      </c>
-      <c r="C10">
-        <v>285141</v>
-      </c>
-      <c r="D10">
+      <c r="A10" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1244431</v>
+      </c>
+      <c r="C10" s="9">
+        <v>505406</v>
+      </c>
+      <c r="D10" s="9">
         <v>609183</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>2359020</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1474017</v>
-      </c>
-      <c r="C11">
-        <v>288822</v>
-      </c>
-      <c r="D11">
+      <c r="A11" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1251315</v>
+      </c>
+      <c r="C11" s="9">
+        <v>511524</v>
+      </c>
+      <c r="D11" s="9">
         <v>624248</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>2387087</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1483430</v>
-      </c>
-      <c r="C12">
-        <v>292926</v>
-      </c>
-      <c r="D12">
+      <c r="A12" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1258298</v>
+      </c>
+      <c r="C12" s="9">
+        <v>518058</v>
+      </c>
+      <c r="D12" s="9">
         <v>638906</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>2415262</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1492891</v>
-      </c>
-      <c r="C13">
-        <v>297409</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1265093</v>
+      </c>
+      <c r="C13" s="9">
+        <v>525207</v>
+      </c>
+      <c r="D13" s="9">
         <v>653600</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>2443900</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1501486</v>
-      </c>
-      <c r="C14">
-        <v>302720</v>
-      </c>
-      <c r="D14">
+      <c r="A14" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1271158</v>
+      </c>
+      <c r="C14" s="9">
+        <v>533048</v>
+      </c>
+      <c r="D14" s="9">
         <v>671200</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>2475406</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1509638</v>
-      </c>
-      <c r="C15">
-        <v>307910</v>
-      </c>
-      <c r="D15">
+      <c r="A15" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1276690</v>
+      </c>
+      <c r="C15" s="9">
+        <v>540858</v>
+      </c>
+      <c r="D15" s="9">
         <v>690057</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>2507605</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1516471</v>
-      </c>
-      <c r="C16">
-        <v>311648</v>
-      </c>
-      <c r="D16">
+      <c r="A16" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1281004</v>
+      </c>
+      <c r="C16" s="9">
+        <v>547115</v>
+      </c>
+      <c r="D16" s="9">
         <v>706940</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>2535059</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1522964</v>
-      </c>
-      <c r="C17">
-        <v>315511</v>
-      </c>
-      <c r="D17">
+      <c r="A17" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1285146</v>
+      </c>
+      <c r="C17" s="9">
+        <v>553329</v>
+      </c>
+      <c r="D17" s="9">
         <v>724346</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>2562821</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1529398</v>
-      </c>
-      <c r="C18">
-        <v>319652</v>
-      </c>
-      <c r="D18">
+      <c r="A18" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1290003</v>
+      </c>
+      <c r="C18" s="9">
+        <v>559047</v>
+      </c>
+      <c r="D18" s="9">
         <v>741318</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>2590368</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1536086</v>
-      </c>
-      <c r="C19">
-        <v>324010</v>
-      </c>
-      <c r="D19">
+      <c r="A19" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1294931</v>
+      </c>
+      <c r="C19" s="9">
+        <v>565165</v>
+      </c>
+      <c r="D19" s="9">
         <v>758346</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>2618442</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1542021</v>
-      </c>
-      <c r="C20">
-        <v>327623</v>
-      </c>
-      <c r="D20">
+      <c r="A20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1299428</v>
+      </c>
+      <c r="C20" s="9">
+        <v>570216</v>
+      </c>
+      <c r="D20" s="9">
         <v>775438</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>2645082</v>
       </c>
     </row>
@@ -1011,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,80 +1474,80 @@
         <v>62</v>
       </c>
       <c r="D10" s="3">
-        <f>D4+D5</f>
-        <v>1403541</v>
+        <f>D4</f>
+        <v>1200816</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:V10" si="0">E4+E5</f>
-        <v>1410509</v>
+        <f t="shared" ref="E10:V10" si="0">E4</f>
+        <v>1205121</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>1415407</v>
+        <v>1207665</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>1421304</v>
+        <v>1211431</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>1431499</v>
+        <v>1219903</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>1437422</v>
+        <v>1223485</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>1446133</v>
+        <v>1230074</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>1455553</v>
+        <v>1237287</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>1464696</v>
+        <v>1244431</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>1474017</v>
+        <v>1251315</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>1483430</v>
+        <v>1258298</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>1492891</v>
+        <v>1265093</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>1501486</v>
+        <v>1271158</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
-        <v>1509638</v>
+        <v>1276690</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="0"/>
-        <v>1516471</v>
+        <v>1281004</v>
       </c>
       <c r="S10" s="3">
         <f t="shared" si="0"/>
-        <v>1522964</v>
+        <v>1285146</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="0"/>
-        <v>1529398</v>
+        <v>1290003</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" si="0"/>
-        <v>1536086</v>
+        <v>1294931</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" si="0"/>
-        <v>1542021</v>
+        <v>1299428</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
@@ -1550,80 +1555,80 @@
         <v>63</v>
       </c>
       <c r="D11" s="3">
-        <f>D6</f>
-        <v>250583</v>
+        <f>D5+D6</f>
+        <v>453308</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11:V11" si="1">E6</f>
-        <v>255063</v>
+        <f t="shared" ref="E11:V11" si="1">E5+E6</f>
+        <v>460451</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>260315</v>
+        <v>468057</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>264304</v>
+        <v>474177</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>267821</v>
+        <v>479417</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>271304</v>
+        <v>485241</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>275801</v>
+        <v>491860</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>281154</v>
+        <v>499420</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="1"/>
-        <v>285141</v>
+        <v>505406</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="1"/>
-        <v>288822</v>
+        <v>511524</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="1"/>
-        <v>292926</v>
+        <v>518058</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>297409</v>
+        <v>525207</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="1"/>
-        <v>302720</v>
+        <v>533048</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="1"/>
-        <v>307910</v>
+        <v>540858</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="1"/>
-        <v>311648</v>
+        <v>547115</v>
       </c>
       <c r="S11" s="3">
         <f t="shared" si="1"/>
-        <v>315511</v>
+        <v>553329</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="1"/>
-        <v>319652</v>
+        <v>559047</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" si="1"/>
-        <v>324010</v>
+        <v>565165</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" si="1"/>
-        <v>327623</v>
+        <v>570216</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1708,6 +1713,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="3">
         <f>SUM(D10:D12)</f>
         <v>2154663</v>
